--- a/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,326 +453,568 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B2" t="n">
-        <v>52</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44935</v>
+        <v>44927</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44970</v>
+        <v>44941</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>44941</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>44976</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45047</v>
+        <v>45039</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45068</v>
+        <v>45046</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45075</v>
+        <v>45053</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45187</v>
+        <v>45074</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45250</v>
+        <v>45081</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45257</v>
+        <v>45193</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45264</v>
+        <v>45256</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45271</v>
+        <v>45263</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45285</v>
+        <v>45270</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45292</v>
+        <v>45277</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45299</v>
+        <v>45291</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45320</v>
+        <v>45298</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45327</v>
+        <v>45305</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45355</v>
+        <v>45326</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45369</v>
+        <v>45333</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45376</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45502</v>
+        <v>45382</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45600</v>
+        <v>45508</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45628</v>
+        <v>45536</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45635</v>
+        <v>45606</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45642</v>
+        <v>45634</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,446 +453,326 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44941</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44941</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44976</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45039</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45046</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45053</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45074</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45081</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45193</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45256</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45263</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45270</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45277</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45291</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45298</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45305</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45326</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45333</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45361</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45375</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45382</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45389</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45508</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45536</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45606</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45634</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45641</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -907,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,6 +810,17 @@
         <is>
           <t>Growth%</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -975,16 +866,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Sales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily PO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merged (Optional)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Volume Insights" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Prediction" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +452,6 @@
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PO_Requested_Qty</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -464,9 +460,6 @@
       <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -475,9 +468,6 @@
       <c r="B3" t="n">
         <v>50</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -486,9 +476,6 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -497,9 +484,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -508,9 +492,6 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -519,9 +500,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -530,9 +508,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -541,9 +516,6 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -552,9 +524,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -563,9 +532,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -574,9 +540,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -585,9 +548,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -596,9 +556,6 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -607,9 +564,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -618,9 +572,6 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -629,9 +580,6 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -640,9 +588,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -651,9 +596,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -662,9 +604,6 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -673,9 +612,6 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -684,9 +620,6 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -695,9 +628,6 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -706,9 +636,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -717,9 +644,6 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -728,9 +652,6 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -739,9 +660,6 @@
       <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -750,9 +668,6 @@
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -761,18 +676,12 @@
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>45655.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -787,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,30 +707,278 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PO_Requested_Qty</t>
+          <t>Vendor code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Growth%</t>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>External ID type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>External ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Model number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Merchant SKU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Catalog number</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Accepted quantity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ASN quantity</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Received quantity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled quantity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining quantity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to location</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Window start</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Window end</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Case size</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Total requested cost</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Total accepted cost</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total received cost</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total cancelled cost</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Expected date</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Freight terms</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Cancellation deadline</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3T8HV8JC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GIGABYTE X570 AORUS Elite Wi-Fi (AMD Ryzen 3000/X570/ATX/PCIe4.0/DDR4/Intel Dual Band 802.11AC Wi-Fi/Front USB Type-C/RGB Fusion 2.0/M.2 Thermal Guard/Gaming Motherboard)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>IR - Cancelled: Temporarily out of stock</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>LAX9</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>216</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>1728</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -829,6 +986,372 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44927.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1423,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predicted_Next_Week_PO_Quantity</t>
+          <t>Predicted_Next_Daily_PO_Quantity</t>
         </is>
       </c>
     </row>

--- a/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07WL5MFXL_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -696,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,120 +873,6 @@
           <t>Cancellation deadline</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3T8HV8JC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45126</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GIGABYTE X570 AORUS Elite Wi-Fi (AMD Ryzen 3000/X570/ATX/PCIe4.0/DDR4/Intel Dual Band 802.11AC Wi-Fi/Front USB Type-C/RGB Fusion 2.0/M.2 Thermal Guard/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B07WL5MFXL</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X570 AORUS ELITE WIFI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>X570 AORUS ELITE WIFI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>LAX9</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>45126</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>216</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>1728</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>45126</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1106,18 +1000,18 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45126</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1128,7 +1022,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1139,10 +1033,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1150,10 +1044,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1161,7 +1055,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1172,10 +1066,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1183,10 +1077,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,10 +1088,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1205,10 +1099,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1216,7 +1110,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1227,7 +1121,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1238,7 +1132,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1249,7 +1143,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1260,10 +1154,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1271,10 +1165,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1282,10 +1176,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1293,10 +1187,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1304,10 +1198,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1315,7 +1209,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1326,10 +1220,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1337,7 +1231,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1389,16 +1283,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
